--- a/Labor2_Graphen_Ergebnisse.xlsx
+++ b/Labor2_Graphen_Ergebnisse.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F1F8494-915B-CB44-BC90-A5330028E3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D07A58-83FD-804D-83D4-8946D7E0F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuch 1" sheetId="1" r:id="rId1"/>
     <sheet name="Versuch 2" sheetId="2" r:id="rId2"/>
     <sheet name="Versuch 3" sheetId="3" r:id="rId3"/>
     <sheet name="Versuch 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Versuch6" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Vpp (gemessen)</t>
   </si>
@@ -96,14 +97,49 @@
   </si>
   <si>
     <t>3,9k</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>Grenzfrequenz</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>av expected</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,9 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58024677-9551-B142-9C07-AC42D68163C5}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -822,4 +859,513 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05801C49-DAC1-204A-AC2E-FDA9E772F1BB}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.94</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>($B$31/$B$32)*(1/(1+2*PI()*A2*$B$31*$B$33))</f>
+        <v>9.9375604660902521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.94</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" si="0">B3/C3</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="1">($B$31/$B$32)*(1/(1+2*PI()*A3*$B$31*$B$33))</f>
+        <v>9.8758958328160276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.94</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>9.6954097204857863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.94</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9.4088260255825098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>19.3</v>
+      </c>
+      <c r="C6">
+        <v>1.94</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.9484536082474229</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>8.8836478829534027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>18.7</v>
+      </c>
+      <c r="C7">
+        <v>1.94</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9.6391752577319583</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.6094277638931178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>16.8</v>
+      </c>
+      <c r="C8">
+        <v>1.94</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8.6597938144329909</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6.1413045490496243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>12.22</v>
+      </c>
+      <c r="C9">
+        <v>1.94</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.2989690721649492</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4.4313727585582221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>5.99</v>
+      </c>
+      <c r="C10">
+        <v>1.94</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.0876288659793816</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.4145300700522387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>3.14</v>
+      </c>
+      <c r="C11">
+        <v>1.94</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.6185567010309279</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.3730256169841295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20000</v>
+      </c>
+      <c r="B12">
+        <v>1.63</v>
+      </c>
+      <c r="C12">
+        <v>1.94</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.84020618556701032</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.73711682249161115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50000</v>
+      </c>
+      <c r="B13">
+        <v>0.68</v>
+      </c>
+      <c r="C13">
+        <v>1.94</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.3505154639175258</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.30849033387726366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>0.34</v>
+      </c>
+      <c r="C14">
+        <v>1.94</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.15666159634676979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1200</v>
+      </c>
+      <c r="B17">
+        <v>15.7</v>
+      </c>
+      <c r="C17">
+        <v>1.94</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8.0927835051546388</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5.7013120143641141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1300</v>
+      </c>
+      <c r="B18">
+        <v>15.2</v>
+      </c>
+      <c r="C18">
+        <v>1.94</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7.8350515463917523</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5.5041404926394382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1400</v>
+      </c>
+      <c r="B19">
+        <v>14.6</v>
+      </c>
+      <c r="C19">
+        <v>1.94</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>7.5257731958762886</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5.320150870547562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1500</v>
+      </c>
+      <c r="B20">
+        <v>14.3</v>
+      </c>
+      <c r="C20">
+        <v>1.94</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7.3711340206185572</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.1480639934192158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1591</v>
+      </c>
+      <c r="B21">
+        <v>13.9</v>
+      </c>
+      <c r="C21">
+        <v>1.94</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5.0008631930640499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1700</v>
+      </c>
+      <c r="B22">
+        <v>13.4</v>
+      </c>
+      <c r="C22">
+        <v>1.94</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6.9072164948453612</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4.8352590909583135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1800</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1.94</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6.7010309278350517</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.6926912413826063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1900</v>
+      </c>
+      <c r="B24">
+        <v>12.6</v>
+      </c>
+      <c r="C24">
+        <v>1.94</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>6.4948453608247423</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4.5582898435439523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25">
+        <v>12.22</v>
+      </c>
+      <c r="C25">
+        <v>1.94</v>
+      </c>
+      <c r="D25">
+        <f>B25/C26</f>
+        <v>6.2989690721649492</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>4.4313727585582221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1600</v>
+      </c>
+      <c r="B26">
+        <v>13.9</v>
+      </c>
+      <c r="C26">
+        <v>1.94</v>
+      </c>
+      <c r="D26">
+        <f>B26/C26</f>
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>4.9867610242862295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15700</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>1E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Labor2_Graphen_Ergebnisse.xlsx
+++ b/Labor2_Graphen_Ergebnisse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/dhbw/Studienjahr 2/Semester 3/Messdatenerfassung/Laborberricht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D07A58-83FD-804D-83D4-8946D7E0F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7921A-858D-3F48-9F57-1DD721B8647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="3" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuch 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,15 @@
     <sheet name="Versuch 4" sheetId="4" r:id="rId4"/>
     <sheet name="Versuch6" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.3" hidden="1">'Versuch 4'!$E$10:$E$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Versuch 4'!$F$10:$F$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Versuch 4'!$F$9</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Versuch 4'!$E$10:$E$15</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Versuch 4'!$F$10:$F$15</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Versuch 4'!$F$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Vpp (gemessen)</t>
   </si>
@@ -124,6 +132,33 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>50 Ohm schritte</t>
+  </si>
+  <si>
+    <t>3850-3875</t>
+  </si>
+  <si>
+    <t>3875-3900</t>
+  </si>
+  <si>
+    <t>3925-3050</t>
+  </si>
+  <si>
+    <t>3,900-3925</t>
+  </si>
+  <si>
+    <t>3975-4000</t>
+  </si>
+  <si>
+    <t>3950-3975</t>
+  </si>
+  <si>
+    <t>Wiederstand in Ohm</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
   </si>
 </sst>
 </file>
@@ -186,6 +221,908 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> Verteilung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Widerstände</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Versuch 4'!$E$10:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3850-3875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3875-3900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3,900-3925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3925-3050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3950-3975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3975-4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Versuch 4'!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DBC-FD47-A1CE-F372ADC200FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1271022719"/>
+        <c:axId val="1271024447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1271022719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271024447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1271024447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271022719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635A7755-1C28-CDA8-624F-8A4B439D18B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58024677-9551-B142-9C07-AC42D68163C5}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,6 +1612,9 @@
       <c r="B6">
         <v>3.8809999999999998</v>
       </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -702,6 +1642,12 @@
       <c r="B9">
         <v>3.87</v>
       </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -711,6 +1657,16 @@
       <c r="B10">
         <v>3.9020000000000001</v>
       </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(B2:B26,"&lt;3,875")</f>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3875</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -720,6 +1676,15 @@
       <c r="B11">
         <v>3.8660000000000001</v>
       </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>3900</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -729,6 +1694,15 @@
       <c r="B12">
         <v>3.9969999999999999</v>
       </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3950</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -738,6 +1712,15 @@
       <c r="B13">
         <v>3.9009999999999998</v>
       </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4000</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -747,6 +1730,12 @@
       <c r="B14">
         <v>3.8650000000000002</v>
       </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -756,6 +1745,12 @@
       <c r="B15">
         <v>3.92</v>
       </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -856,8 +1851,27 @@
         <v>3.8769999999999998</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>AVERAGE(B2:B26)</f>
+        <v>162.18044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>AVERAGE(B2:B26)</f>
+        <v>162.18044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <f>AVERAGE(B3,B2,B4,B5,B6,B7,B8,B9,B10,B11,B13,B12,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26)</f>
+        <v>162.18044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -865,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05801C49-DAC1-204A-AC2E-FDA9E772F1BB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +1935,7 @@
         <v>1.94</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" si="0">B3/C3</f>
+        <f t="shared" ref="D3:D24" si="0">B3/C3</f>
         <v>10</v>
       </c>
       <c r="E3">

--- a/Labor2_Graphen_Ergebnisse.xlsx
+++ b/Labor2_Graphen_Ergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippgehrig/Desktop/dhbw/Studienjahr 2/Semester 3/Messdatenerfassung/Laborberricht/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinarkarchevskii/Desktop/dhbw_dev/semester3/Messdatenerfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7921A-858D-3F48-9F57-1DD721B8647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6789B46-7994-5947-B9A1-580785F28049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="3" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{28BA3105-05C1-E144-B1EA-F4C034B57166}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuch 1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <sheet name="Versuch 4" sheetId="4" r:id="rId4"/>
     <sheet name="Versuch6" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.3" hidden="1">'Versuch 4'!$E$10:$E$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Versuch 4'!$F$10:$F$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Versuch 4'!$F$9</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Versuch 4'!$E$10:$E$15</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Versuch 4'!$F$10:$F$15</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Versuch 4'!$F$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Vpp (gemessen)</t>
   </si>
@@ -160,12 +152,39 @@
   <si>
     <t>Anzahl</t>
   </si>
+  <si>
+    <t>Frequenz</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>Av erwartet</t>
+  </si>
+  <si>
+    <t>Toleranzband Oben</t>
+  </si>
+  <si>
+    <t>Av (gemessen)</t>
+  </si>
+  <si>
+    <t>Ua [V] (gemessen)</t>
+  </si>
+  <si>
+    <t>Frequenz [Hz]</t>
+  </si>
+  <si>
+    <t>Toleranzband unten</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,16 +200,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,19 +231,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,7 +674,1143 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Av gemessen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Versuch6!$G$32:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Versuch6!$H$32:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9484536082474229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6391752577319583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6597938144329909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0927835051546388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8350515463917523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5257731958762886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3711340206185572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1649484536082477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1649484536082477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9072164948453612</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7010309278350517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4948453608247423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2989690721649492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0876288659793816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6185567010309279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84020618556701032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3505154639175258</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1752577319587629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC87-474F-BDE0-1B112C86D23B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealgerade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Versuch6!$G$32:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Versuch6!$I$32:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.9998026137563318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.999210525148337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9950688476386205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9803190450364472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9219661539359159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5402821637846493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4673301596483039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9847115509974866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.74476187734198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5084534428605911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2772718338952718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0722884458120392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0523203516312893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8343803477735285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6239682153353971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.42138675594635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2267699229949978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0331447105335285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5717672547758985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79326696843658517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31814875094938611</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15913478971147696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CC87-474F-BDE0-1B112C86D23B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Toleranzbereich</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Versuch6!$G$32:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Versuch6!$J$32:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10.999782875131965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.999131577663171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.994575732402483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.978350949540092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.914162769329508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.494310380163114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3140631756131338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7831827060972358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5192380650761788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2592987871466512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0049990172847991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.779517290393243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7575523867944183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5178183825508818</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2863650368689372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0635254315409846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8494469152944975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3364591815868812</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7289439802534883</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87259366528024374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34996362604432474</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17504826868262466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CC87-474F-BDE0-1B112C86D23B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Toleranzbereich Unten FB1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Versuch6!$G$32:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Versuch6!$K$32:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8.4998322216928823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.499328946376087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4958085204928278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4832711882809804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4336712308455279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1092398392169525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1972306357010583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7870048183478637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5830475957406831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3821854264315023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1856810588109807</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0114451789402334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9944722988865955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8092232956074996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6303729830350875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4581787425543977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2927544345457482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5781730039534994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3360021665595139</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67427692317109744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27042643830697821</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13526457125475541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CC87-474F-BDE0-1B112C86D23B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390300256"/>
+        <c:axId val="390302528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390300256"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequenz</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> f</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390302528"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390302528"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spannungsverstärkung Av</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390300256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1065,6 +2334,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1123,6 +2908,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>709786</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>287866</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>120432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC69C2CC-A1FA-801F-ABFA-34CA61F42D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{390483BD-B38B-794E-AC5F-4F309E737C5D}" name="Table1" displayName="Table1" ref="I5:L27" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="I5:L27" xr:uid="{390483BD-B38B-794E-AC5F-4F309E737C5D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D77C76E7-C5EB-A444-9706-6D67A3ECAB7C}" name="Frequenz [Hz]" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C8FBEFC2-23F8-8547-B80D-DDC93D503ABA}" name="Ua [V] (gemessen)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{62220829-46B4-294C-BD18-7C5F6934AEB2}" name="Av (gemessen)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{68DABD42-B5C8-3344-9152-8300AC0A9725}" name="Av erwartet" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1535,7 +3374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58024677-9551-B142-9C07-AC42D68163C5}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
@@ -1877,18 +3716,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05801C49-DAC1-204A-AC2E-FDA9E772F1BB}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +3749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1920,11 +3764,11 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>($B$31/$B$32)*(1/(1+2*PI()*A2*$B$31*$B$33))</f>
-        <v>9.9375604660902521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f>($B$31/$B$32)*(1/SQRT(1+4*PI()^2*A2^2*$B$31^2*$B$33^2))</f>
+        <v>9.9998026137563318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1939,11 +3783,11 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="1">($B$31/$B$32)*(1/(1+2*PI()*A3*$B$31*$B$33))</f>
-        <v>9.8758958328160276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E3:E26" si="1">($B$31/$B$32)*(1/SQRT(1+4*PI()^2*A3^2*$B$31^2*$B$33^2))</f>
+        <v>9.999210525148337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1959,10 +3803,10 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>9.6954097204857863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.9950688476386205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1978,10 +3822,22 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>9.4088260255825098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.9803190450364472</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
@@ -1997,10 +3853,22 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>8.8836478829534027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.9219661539359159</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>9.9998026137563318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2016,10 +3884,22 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7.6094277638931178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.5402821637846493</v>
+      </c>
+      <c r="I7" s="4">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>9.999210525148337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2035,10 +3915,22 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6.1413045490496243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.4673301596483039</v>
+      </c>
+      <c r="I8" s="4">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>9.9950688476386205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -2054,10 +3946,22 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>4.4313727585582221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.2267699229949978</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
+      <c r="J9" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9.9803190450364472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -2073,10 +3977,22 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>2.4145300700522387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.0331447105335285</v>
+      </c>
+      <c r="I10" s="4">
+        <v>200</v>
+      </c>
+      <c r="J10" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9.9484536082474229</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9.9219661539359159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -2092,10 +4008,22 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1.3730256169841295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.5717672547758985</v>
+      </c>
+      <c r="I11" s="4">
+        <v>500</v>
+      </c>
+      <c r="J11" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9.6391752577319583</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9.5402821637846493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20000</v>
       </c>
@@ -2111,10 +4039,22 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.73711682249161115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.79326696843658517</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8.6597938144329909</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8.4673301596483039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50000</v>
       </c>
@@ -2130,10 +4070,22 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.30849033387726366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31814875094938611</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1200</v>
+      </c>
+      <c r="J13" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8.0927835051546388</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7.9847115509974866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100000</v>
       </c>
@@ -2149,15 +4101,53 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.15666159634676979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.15913478971147696</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1300</v>
+      </c>
+      <c r="J14" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>7.8350515463917523</v>
+      </c>
+      <c r="L14" s="3">
+        <v>7.74476187734198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="4">
+        <v>1400</v>
+      </c>
+      <c r="J15" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="K15" s="5">
+        <v>7.5257731958762886</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7.5084534428605911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I16" s="4">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>7.3711340206185572</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7.2772718338952718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1200</v>
       </c>
@@ -2173,10 +4163,22 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>5.7013120143641141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.9847115509974866</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1591</v>
+      </c>
+      <c r="J17" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="K17" s="5">
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7.0722884458120392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1300</v>
       </c>
@@ -2192,10 +4194,22 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>5.5041404926394382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.74476187734198</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7.0523203516312893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1400</v>
       </c>
@@ -2211,10 +4225,22 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>5.320150870547562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.5084534428605911</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1700</v>
+      </c>
+      <c r="J19" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>6.9072164948453612</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6.8343803477735285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1500</v>
       </c>
@@ -2230,10 +4256,22 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>5.1480639934192158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.2772718338952718</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="4">
+        <v>13</v>
+      </c>
+      <c r="K20" s="5">
+        <v>6.7010309278350517</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.6239682153353971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1591</v>
       </c>
@@ -2249,10 +4287,22 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>5.0008631930640499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.0722884458120392</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1900</v>
+      </c>
+      <c r="J21" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="K21" s="5">
+        <v>6.4948453608247423</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.42138675594635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1700</v>
       </c>
@@ -2268,10 +4318,22 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>4.8352590909583135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.8343803477735285</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="4">
+        <v>12.22</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6.2989690721649492</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.2267699229949978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1800</v>
       </c>
@@ -2287,10 +4349,22 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>4.6926912413826063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.6239682153353971</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3.0876288659793816</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3.0331447105335285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1900</v>
       </c>
@@ -2306,10 +4380,22 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>4.5582898435439523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.42138675594635</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1.6185567010309279</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.5717672547758985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -2320,15 +4406,27 @@
         <v>1.94</v>
       </c>
       <c r="D25">
-        <f>B25/C26</f>
+        <f>B25/C25</f>
         <v>6.2989690721649492</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>4.4313727585582221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.2267699229949978</v>
+      </c>
+      <c r="I25" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.84020618556701032</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.79326696843658517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1600</v>
       </c>
@@ -2344,10 +4442,36 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>4.9867610242862295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.0523203516312893</v>
+      </c>
+      <c r="I26" s="4">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.3505154639175258</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.31814875094938611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="4">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.15913478971147696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>15700</v>
       </c>
@@ -2355,31 +4479,464 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31">
         <v>10000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3">
+        <v>9.9998026137563318</v>
+      </c>
+      <c r="J32">
+        <f>I32*0.1+I32</f>
+        <v>10.999782875131965</v>
+      </c>
+      <c r="K32">
+        <f>I32-I32*0.15</f>
+        <v>8.4998322216928823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33">
         <v>1E-8</v>
       </c>
+      <c r="G33" s="7">
+        <v>20</v>
+      </c>
+      <c r="H33" s="10">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3">
+        <v>9.999210525148337</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J53" si="2">I33*0.1+I33</f>
+        <v>10.999131577663171</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K53" si="3">I33-I33*0.15</f>
+        <v>8.499328946376087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="7">
+        <v>50</v>
+      </c>
+      <c r="H34" s="10">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3">
+        <v>9.9950688476386205</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>10.994575732402483</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>8.4958085204928278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G35" s="7">
+        <v>100</v>
+      </c>
+      <c r="H35" s="10">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9.9803190450364472</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>10.978350949540092</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>8.4832711882809804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G36" s="7">
+        <v>200</v>
+      </c>
+      <c r="H36" s="10">
+        <v>9.9484536082474229</v>
+      </c>
+      <c r="I36" s="3">
+        <v>9.9219661539359159</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>10.914162769329508</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>8.4336712308455279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G37" s="7">
+        <v>500</v>
+      </c>
+      <c r="H37" s="10">
+        <v>9.6391752577319583</v>
+      </c>
+      <c r="I37" s="3">
+        <v>9.5402821637846493</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>10.494310380163114</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>8.1092398392169525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="10">
+        <v>8.6597938144329909</v>
+      </c>
+      <c r="I38" s="3">
+        <v>8.4673301596483039</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>9.3140631756131338</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>7.1972306357010583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H39" s="10">
+        <v>8.0927835051546388</v>
+      </c>
+      <c r="I39" s="3">
+        <v>7.9847115509974866</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>8.7831827060972358</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>6.7870048183478637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G40" s="7">
+        <v>1300</v>
+      </c>
+      <c r="H40" s="10">
+        <v>7.8350515463917523</v>
+      </c>
+      <c r="I40" s="3">
+        <v>7.74476187734198</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>8.5192380650761788</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>6.5830475957406831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G41" s="7">
+        <v>1400</v>
+      </c>
+      <c r="H41" s="10">
+        <v>7.5257731958762886</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7.5084534428605911</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>8.2592987871466512</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>6.3821854264315023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G42" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="10">
+        <v>7.3711340206185572</v>
+      </c>
+      <c r="I42" s="3">
+        <v>7.2772718338952718</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>8.0049990172847991</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>6.1856810588109807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G43" s="8">
+        <v>1591</v>
+      </c>
+      <c r="H43" s="10">
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7.0722884458120392</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>7.779517290393243</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>6.0114451789402334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G44" s="7">
+        <v>1600</v>
+      </c>
+      <c r="H44" s="10">
+        <v>7.1649484536082477</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7.0523203516312893</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>7.7575523867944183</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>5.9944722988865955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G45" s="7">
+        <v>1700</v>
+      </c>
+      <c r="H45" s="10">
+        <v>6.9072164948453612</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6.8343803477735285</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>7.5178183825508818</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>5.8092232956074996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G46" s="7">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="10">
+        <v>6.7010309278350517</v>
+      </c>
+      <c r="I46" s="3">
+        <v>6.6239682153353971</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>7.2863650368689372</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>5.6303729830350875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G47" s="7">
+        <v>1900</v>
+      </c>
+      <c r="H47" s="10">
+        <v>6.4948453608247423</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6.42138675594635</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>7.0635254315409846</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>5.4581787425543977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G48" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="10">
+        <v>6.2989690721649492</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6.2267699229949978</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>6.8494469152944975</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>5.2927544345457482</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G49" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H49" s="10">
+        <v>3.0876288659793816</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3.0331447105335285</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>3.3364591815868812</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>2.5781730039534994</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G50" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1.6185567010309279</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1.5717672547758985</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>1.7289439802534883</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>1.3360021665595139</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G51" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.84020618556701032</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.79326696843658517</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0.87259366528024374</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.67427692317109744</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G52" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.3505154639175258</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.31814875094938611</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0.34996362604432474</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.27042643830697821</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G53" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.15913478971147696</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>0.17504826868262466</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0.13526457125475541</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>